--- a/ProjectDocumention/DatasConception.xlsx
+++ b/ProjectDocumention/DatasConception.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="23715" windowHeight="9030"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="23715" windowHeight="9030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arduino" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>IA</t>
   </si>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t>Puissance Input</t>
+  </si>
+  <si>
+    <t>Ref Voltage</t>
+  </si>
+  <si>
+    <t>RPM/Volt</t>
   </si>
 </sst>
 </file>
@@ -371,7 +377,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -388,7 +416,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -402,11 +435,11 @@
   <autoFilter ref="A1:F11"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Colonne1"/>
-    <tableColumn id="2" name="IA" dataDxfId="4"/>
-    <tableColumn id="3" name="ID/OD" dataDxfId="3"/>
-    <tableColumn id="4" name="ID Interrupt" dataDxfId="2"/>
-    <tableColumn id="6" name="OD PWM" dataDxfId="1"/>
-    <tableColumn id="7" name="IO Serial" dataDxfId="0"/>
+    <tableColumn id="2" name="IA" dataDxfId="6"/>
+    <tableColumn id="3" name="ID/OD" dataDxfId="5"/>
+    <tableColumn id="4" name="ID Interrupt" dataDxfId="4"/>
+    <tableColumn id="6" name="OD PWM" dataDxfId="3"/>
+    <tableColumn id="7" name="IO Serial" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -701,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,10 +987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I2"/>
+  <dimension ref="B1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,7 +1003,7 @@
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -995,8 +1028,14 @@
       <c r="I1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>65</v>
       </c>
@@ -1025,6 +1064,13 @@
       <c r="I2">
         <f>H2/1000*60</f>
         <v>1.4702653618800228</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <f>G2/J2</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectDocumention/DatasConception.xlsx
+++ b/ProjectDocumention/DatasConception.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="23715" windowHeight="9030" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="23715" windowHeight="9030" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Arduino" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>IA</t>
   </si>
@@ -312,13 +312,25 @@
   </si>
   <si>
     <t>RPM/Volt</t>
+  </si>
+  <si>
+    <t>poulies</t>
+  </si>
+  <si>
+    <t>chaine et attaches rapide</t>
+  </si>
+  <si>
+    <t>5 m de chaine (reste 4 m)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +350,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -363,21 +382,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -400,26 +437,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -435,11 +457,11 @@
   <autoFilter ref="A1:F11"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Colonne1"/>
-    <tableColumn id="2" name="IA" dataDxfId="6"/>
-    <tableColumn id="3" name="ID/OD" dataDxfId="5"/>
-    <tableColumn id="4" name="ID Interrupt" dataDxfId="4"/>
-    <tableColumn id="6" name="OD PWM" dataDxfId="3"/>
-    <tableColumn id="7" name="IO Serial" dataDxfId="2"/>
+    <tableColumn id="2" name="IA" dataDxfId="4"/>
+    <tableColumn id="3" name="ID/OD" dataDxfId="3"/>
+    <tableColumn id="4" name="ID Interrupt" dataDxfId="2"/>
+    <tableColumn id="6" name="OD PWM" dataDxfId="1"/>
+    <tableColumn id="7" name="IO Serial" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -989,7 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -1249,15 +1271,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1270,7 +1293,7 @@
       <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F1" t="s">
@@ -1287,7 +1310,7 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <f t="shared" ref="E2:E5" si="0">D2*C2</f>
         <v>0</v>
       </c>
@@ -1308,7 +1331,7 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <f t="shared" si="0"/>
         <v>5.38</v>
       </c>
@@ -1329,7 +1352,7 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -1350,7 +1373,7 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>5.47</v>
       </c>
@@ -1371,7 +1394,7 @@
       <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <f>D6*C6</f>
         <v>3.34</v>
       </c>
@@ -1392,7 +1415,7 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <f>D7*C7</f>
         <v>8.06</v>
       </c>
@@ -1413,7 +1436,7 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <f>D8*C8</f>
         <v>29.94</v>
       </c>
@@ -1428,6 +1451,10 @@
       <c r="D9">
         <v>4</v>
       </c>
+      <c r="E9" s="4">
+        <f t="shared" ref="E9:E14" si="1">D9*C9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1436,6 +1463,10 @@
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="E10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F10" t="s">
         <v>56</v>
       </c>
@@ -1447,6 +1478,10 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="E11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1455,11 +1490,48 @@
       <c r="D12">
         <v>4</v>
       </c>
+      <c r="E12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E21">
+      <c r="E21" s="4">
         <f>SUM(E2:E20)</f>
-        <v>88.19</v>
+        <v>145.19</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">

--- a/ProjectDocumention/DatasConception.xlsx
+++ b/ProjectDocumention/DatasConception.xlsx
@@ -4,14 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="23715" windowHeight="9030" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="23715" windowHeight="9030" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Arduino" sheetId="1" r:id="rId1"/>
     <sheet name="tourMoteurs" sheetId="2" r:id="rId2"/>
     <sheet name="courant" sheetId="3" r:id="rId3"/>
     <sheet name="BOM" sheetId="4" r:id="rId4"/>
+    <sheet name="ArduinoMegaPin" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ArduinoMegaPin!$A$1:$G$71</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -116,8 +120,56 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>jean</author>
+  </authors>
+  <commentList>
+    <comment ref="D8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>used by echoDectection</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>used by servo motor</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="167">
   <si>
     <t>IA</t>
   </si>
@@ -128,12 +180,6 @@
     <t>IO Serial</t>
   </si>
   <si>
-    <t>Laison Rasberry</t>
-  </si>
-  <si>
-    <t>4 Sonars</t>
-  </si>
-  <si>
     <t>ID Interrupt</t>
   </si>
   <si>
@@ -321,6 +367,309 @@
   </si>
   <si>
     <t>5 m de chaine (reste 4 m)</t>
+  </si>
+  <si>
+    <t>2 Sonars</t>
+  </si>
+  <si>
+    <t>Laison esp8266</t>
+  </si>
+  <si>
+    <t>Pin_1</t>
+  </si>
+  <si>
+    <t>Pin_2</t>
+  </si>
+  <si>
+    <t>Pin_3</t>
+  </si>
+  <si>
+    <t>Pin_4</t>
+  </si>
+  <si>
+    <t>Pin_5</t>
+  </si>
+  <si>
+    <t>Pin_6</t>
+  </si>
+  <si>
+    <t>Pin_7</t>
+  </si>
+  <si>
+    <t>Pin_8</t>
+  </si>
+  <si>
+    <t>Pin_9</t>
+  </si>
+  <si>
+    <t>Pin_10</t>
+  </si>
+  <si>
+    <t>Pin_11</t>
+  </si>
+  <si>
+    <t>Pin_12</t>
+  </si>
+  <si>
+    <t>Pin_13</t>
+  </si>
+  <si>
+    <t>Pin_14</t>
+  </si>
+  <si>
+    <t>Pin_15</t>
+  </si>
+  <si>
+    <t>Pin_16</t>
+  </si>
+  <si>
+    <t>Pin_17</t>
+  </si>
+  <si>
+    <t>Pin_18</t>
+  </si>
+  <si>
+    <t>Pin_19</t>
+  </si>
+  <si>
+    <t>Pin_20</t>
+  </si>
+  <si>
+    <t>Pin_21</t>
+  </si>
+  <si>
+    <t>Pin_22</t>
+  </si>
+  <si>
+    <t>Pin_23</t>
+  </si>
+  <si>
+    <t>Pin_24</t>
+  </si>
+  <si>
+    <t>Pin_25</t>
+  </si>
+  <si>
+    <t>Pin_0</t>
+  </si>
+  <si>
+    <t>Pin_26</t>
+  </si>
+  <si>
+    <t>Pin_27</t>
+  </si>
+  <si>
+    <t>Pin_28</t>
+  </si>
+  <si>
+    <t>Pin_29</t>
+  </si>
+  <si>
+    <t>Pin_30</t>
+  </si>
+  <si>
+    <t>Pin_31</t>
+  </si>
+  <si>
+    <t>Pin_32</t>
+  </si>
+  <si>
+    <t>Pin_33</t>
+  </si>
+  <si>
+    <t>Pin_34</t>
+  </si>
+  <si>
+    <t>Pin_35</t>
+  </si>
+  <si>
+    <t>Pin_36</t>
+  </si>
+  <si>
+    <t>Pin_37</t>
+  </si>
+  <si>
+    <t>Pin_38</t>
+  </si>
+  <si>
+    <t>Pin_39</t>
+  </si>
+  <si>
+    <t>Pin_40</t>
+  </si>
+  <si>
+    <t>Pin_41</t>
+  </si>
+  <si>
+    <t>Pin_42</t>
+  </si>
+  <si>
+    <t>Pin_43</t>
+  </si>
+  <si>
+    <t>Pin_44</t>
+  </si>
+  <si>
+    <t>Pin_45</t>
+  </si>
+  <si>
+    <t>Pin_46</t>
+  </si>
+  <si>
+    <t>Pin_47</t>
+  </si>
+  <si>
+    <t>Pin_48</t>
+  </si>
+  <si>
+    <t>Pin_49</t>
+  </si>
+  <si>
+    <t>Pin_50</t>
+  </si>
+  <si>
+    <t>Pin_51</t>
+  </si>
+  <si>
+    <t>Pin_52</t>
+  </si>
+  <si>
+    <t>Pin_53</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>PMW</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>Interrupt</t>
+  </si>
+  <si>
+    <t>serial 0</t>
+  </si>
+  <si>
+    <t>serial 1</t>
+  </si>
+  <si>
+    <t>serial 2</t>
+  </si>
+  <si>
+    <t>serial 3</t>
+  </si>
+  <si>
+    <t>serial 4</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>A_0</t>
+  </si>
+  <si>
+    <t>A_1</t>
+  </si>
+  <si>
+    <t>A_2</t>
+  </si>
+  <si>
+    <t>A_3</t>
+  </si>
+  <si>
+    <t>A_4</t>
+  </si>
+  <si>
+    <t>A_5</t>
+  </si>
+  <si>
+    <t>A_6</t>
+  </si>
+  <si>
+    <t>A_7</t>
+  </si>
+  <si>
+    <t>A_8</t>
+  </si>
+  <si>
+    <t>A_9</t>
+  </si>
+  <si>
+    <t>A_10</t>
+  </si>
+  <si>
+    <t>A_11</t>
+  </si>
+  <si>
+    <t>A_12</t>
+  </si>
+  <si>
+    <t>A_13</t>
+  </si>
+  <si>
+    <t>A_14</t>
+  </si>
+  <si>
+    <t>A_15</t>
+  </si>
+  <si>
+    <t>timer 0</t>
+  </si>
+  <si>
+    <t>timer 1</t>
+  </si>
+  <si>
+    <t>timer 2</t>
+  </si>
+  <si>
+    <t>timer 5</t>
+  </si>
+  <si>
+    <t>timer 4</t>
+  </si>
+  <si>
+    <t>timer 3</t>
+  </si>
+  <si>
+    <t>power  read</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Motor PMW</t>
+  </si>
+  <si>
+    <t>Motor drive</t>
+  </si>
+  <si>
+    <t>wheel encoder</t>
+  </si>
+  <si>
+    <t>Servo motor</t>
+  </si>
+  <si>
+    <t>echo read</t>
+  </si>
+  <si>
+    <t>echo trigger</t>
+  </si>
+  <si>
+    <t>esp8266 link</t>
+  </si>
+  <si>
+    <t>software interupt echo</t>
   </si>
 </sst>
 </file>
@@ -330,7 +679,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,8 +707,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +726,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -394,6 +781,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -757,7 +1191,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,16 +1202,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -788,7 +1222,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -808,16 +1242,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -828,7 +1262,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -846,19 +1280,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
+      <c r="C5" s="1">
         <v>4</v>
       </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -878,7 +1312,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -898,7 +1332,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
@@ -910,7 +1344,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
@@ -931,7 +1365,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
         <f>SUM(B2:B10)</f>
@@ -943,7 +1377,7 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
@@ -956,7 +1390,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>16</v>
@@ -976,7 +1410,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <f t="shared" ref="B14:E14" si="1">B13-B11</f>
@@ -988,7 +1422,7 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
@@ -1027,34 +1461,34 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
@@ -1122,30 +1556,30 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -1160,7 +1594,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>2.8</v>
@@ -1175,7 +1609,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -1190,7 +1624,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0.3</v>
@@ -1205,7 +1639,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0.1</v>
@@ -1220,7 +1654,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <f>H7/12*1.1</f>
@@ -1239,7 +1673,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8">
         <v>0.5</v>
@@ -1271,7 +1705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -1285,27 +1719,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1315,15 +1749,15 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>5.38</v>
@@ -1336,15 +1770,15 @@
         <v>5.38</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>36</v>
@@ -1357,15 +1791,15 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>5.47</v>
@@ -1378,15 +1812,15 @@
         <v>5.47</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>0.83499999999999996</v>
@@ -1399,15 +1833,15 @@
         <v>3.34</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>8.06</v>
@@ -1420,15 +1854,15 @@
         <v>8.06</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>14.97</v>
@@ -1441,12 +1875,12 @@
         <v>29.94</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -1458,7 +1892,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1468,12 +1902,12 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1485,7 +1919,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1497,7 +1931,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13">
         <v>45</v>
@@ -1510,12 +1944,12 @@
         <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1536,10 +1970,676 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="7" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="F3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="F14" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="F19" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="20"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>148</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>149</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>150</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G71"/>
+  <mergeCells count="11">
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D8:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ProjectDocumention/DatasConception.xlsx
+++ b/ProjectDocumention/DatasConception.xlsx
@@ -14,7 +14,7 @@
     <sheet name="ArduinoMegaPin" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ArduinoMegaPin!$A$1:$G$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ArduinoMegaPin!$A$1:$H$71</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="180">
   <si>
     <t>IA</t>
   </si>
@@ -642,34 +642,73 @@
     <t>timer 3</t>
   </si>
   <si>
-    <t>power  read</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
-    <t>Motor PMW</t>
-  </si>
-  <si>
-    <t>Motor drive</t>
-  </si>
-  <si>
-    <t>wheel encoder</t>
-  </si>
-  <si>
     <t>Servo motor</t>
   </si>
   <si>
-    <t>echo read</t>
-  </si>
-  <si>
-    <t>echo trigger</t>
-  </si>
-  <si>
     <t>esp8266 link</t>
   </si>
   <si>
-    <t>software interupt echo</t>
+    <t>I2C</t>
+  </si>
+  <si>
+    <t>SDA magnetometer</t>
+  </si>
+  <si>
+    <t>SCL magnetometer</t>
+  </si>
+  <si>
+    <t>Horn</t>
+  </si>
+  <si>
+    <t>9v power  read</t>
+  </si>
+  <si>
+    <t>5v power  read</t>
+  </si>
+  <si>
+    <t>Left Motor PMW</t>
+  </si>
+  <si>
+    <t>Right Motor PMW</t>
+  </si>
+  <si>
+    <t>Left IN1 Motor drive</t>
+  </si>
+  <si>
+    <t>LeftIN2  Motor drive</t>
+  </si>
+  <si>
+    <t>Right IN4 Motor drive</t>
+  </si>
+  <si>
+    <t>Right IN3 Motor drive</t>
+  </si>
+  <si>
+    <t>left wheel encoder</t>
+  </si>
+  <si>
+    <t>right wheel encoder</t>
+  </si>
+  <si>
+    <t>front echo read</t>
+  </si>
+  <si>
+    <t>front echo trigger</t>
+  </si>
+  <si>
+    <t>back echo read</t>
+  </si>
+  <si>
+    <t>back echo trigger</t>
+  </si>
+  <si>
+    <t>software interupt (wheel encoder)</t>
+  </si>
+  <si>
+    <t>software interupt (echo)</t>
   </si>
 </sst>
 </file>
@@ -773,7 +812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -781,7 +820,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -825,8 +863,29 @@
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1980,664 +2039,703 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="7" width="11.42578125" style="1"/>
+    <col min="3" max="4" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="11.42578125" style="15"/>
+    <col min="6" max="7" width="11.42578125" style="1"/>
+    <col min="8" max="8" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="26" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="27" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="21"/>
-      <c r="F3" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="17"/>
+      <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="1">
+      <c r="D5" s="24"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>76</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="22" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="16"/>
+      <c r="G13" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="F14" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="23"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="22" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>83</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>84</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="F19" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>5</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="E21" s="1">
+      <c r="B21" s="22"/>
+      <c r="F21" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="1">
         <v>3</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="E23" s="1">
+      <c r="B23" s="22"/>
+      <c r="E23" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="1">
         <v>2</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>112</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="19"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>113</v>
       </c>
       <c r="D47" s="20"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="19"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>114</v>
       </c>
       <c r="D48" s="20"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E48" s="19"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>118</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G52" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H52" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>119</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H53" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>120</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G54" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H54" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>121</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H55" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>143</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G64" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>144</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G65" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>148</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G69" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>149</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G70" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>150</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>157</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G71"/>
+  <autoFilter ref="A1:H71"/>
   <mergeCells count="11">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="D46:D48"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/ProjectDocumention/DatasConception.xlsx
+++ b/ProjectDocumention/DatasConception.xlsx
@@ -126,6 +126,20 @@
     <author>jean</author>
   </authors>
   <commentList>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>timer 3 a priori utilise par servo</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D8" authorId="0">
       <text>
         <r>
@@ -150,7 +164,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>used by servo motor</t>
+          <t>used by wheel control</t>
         </r>
         <r>
           <rPr>
@@ -705,10 +719,10 @@
     <t>back echo trigger</t>
   </si>
   <si>
-    <t>software interupt (wheel encoder)</t>
-  </si>
-  <si>
-    <t>software interupt (echo)</t>
+    <t>software interrupt (echo)</t>
+  </si>
+  <si>
+    <t>software interrupt (wheel encoder)</t>
   </si>
 </sst>
 </file>
@@ -799,10 +813,47 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -812,7 +863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -827,65 +878,86 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2045,15 +2117,15 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="11.42578125" style="15"/>
+    <col min="5" max="5" width="11.42578125" style="14"/>
     <col min="6" max="7" width="11.42578125" style="1"/>
-    <col min="8" max="8" width="11.42578125" style="14"/>
+    <col min="8" max="8" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2075,7 +2147,7 @@
       <c r="G1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="19" t="s">
         <v>131</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -2086,25 +2158,25 @@
       <c r="A2" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>126</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="20" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="23"/>
       <c r="G3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H3" s="27"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2113,36 +2185,36 @@
       <c r="C4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="G4" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="17"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2158,49 +2230,49 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="18"/>
+      <c r="C10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2209,18 +2281,18 @@
       <c r="C11" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2229,14 +2301,14 @@
       <c r="C13" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="G13" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="14" t="s">
+      <c r="E13" s="15"/>
+      <c r="G13" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2247,12 +2319,12 @@
       <c r="C14" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="16"/>
-      <c r="G14" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" s="14" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="15"/>
+      <c r="G14" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2286,13 +2358,13 @@
       <c r="A18" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" s="14" t="s">
+      <c r="G18" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2300,11 +2372,11 @@
       <c r="A19" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="G19" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" s="14" t="s">
+      <c r="B19" s="23"/>
+      <c r="G19" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2318,10 +2390,10 @@
       <c r="F20" s="1">
         <v>5</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" s="14" t="s">
+      <c r="G20" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2333,10 +2405,10 @@
       <c r="F21" s="1">
         <v>4</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" s="14" t="s">
+      <c r="G21" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2347,7 +2419,7 @@
       <c r="B22" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>134</v>
       </c>
       <c r="F22" s="1">
@@ -2356,7 +2428,7 @@
       <c r="G22" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="13" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2365,7 +2437,7 @@
         <v>88</v>
       </c>
       <c r="B23" s="22"/>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>134</v>
       </c>
       <c r="F23" s="1">
@@ -2374,7 +2446,7 @@
       <c r="G23" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="13" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2385,7 +2457,7 @@
       <c r="G24" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2396,7 +2468,7 @@
       <c r="G25" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="13" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2407,7 +2479,7 @@
       <c r="G26" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="13" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2418,7 +2490,7 @@
       <c r="G27" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="13" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2429,7 +2501,7 @@
       <c r="G28" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="13" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2440,7 +2512,7 @@
       <c r="G29" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="13" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2451,7 +2523,7 @@
       <c r="G30" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H30" s="13" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2465,52 +2537,52 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>108</v>
       </c>
@@ -2525,7 +2597,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>111</v>
       </c>
@@ -2534,24 +2606,24 @@
       <c r="A46" t="s">
         <v>112</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="E46" s="19"/>
+      <c r="E46" s="18"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="19"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="30"/>
+      <c r="E47" s="18"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="19"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="18"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -2570,7 +2642,7 @@
       <c r="G51" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H51" s="14" t="s">
+      <c r="H51" s="13" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2581,7 +2653,7 @@
       <c r="G52" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H52" s="14" t="s">
+      <c r="H52" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2592,7 +2664,7 @@
       <c r="G53" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H53" s="14" t="s">
+      <c r="H53" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2603,7 +2675,7 @@
       <c r="G54" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H54" s="14" t="s">
+      <c r="H54" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2614,7 +2686,7 @@
       <c r="G55" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H55" s="14" t="s">
+      <c r="H55" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2665,7 +2737,7 @@
       <c r="G64" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H64" s="14" t="s">
+      <c r="H64" s="13" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2676,7 +2748,7 @@
       <c r="G65" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H65" s="14" t="s">
+      <c r="H65" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2702,7 +2774,7 @@
       <c r="G69" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H69" s="14" t="s">
+      <c r="H69" s="13" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2713,7 +2785,7 @@
       <c r="G70" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H70" s="14" t="s">
+      <c r="H70" s="13" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2725,17 +2797,17 @@
   </sheetData>
   <autoFilter ref="A1:H71"/>
   <mergeCells count="11">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D8:D10"/>
     <mergeCell ref="D46:D48"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/ProjectDocumention/DatasConception.xlsx
+++ b/ProjectDocumention/DatasConception.xlsx
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="181">
   <si>
     <t>IA</t>
   </si>
@@ -723,6 +723,9 @@
   </si>
   <si>
     <t>software interrupt (wheel encoder)</t>
+  </si>
+  <si>
+    <t>power for encoder</t>
   </si>
 </sst>
 </file>
@@ -914,49 +917,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2114,10 +2117,10 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L47" sqref="L47"/>
+      <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2158,13 +2161,13 @@
       <c r="A2" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="33" t="s">
         <v>126</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="21" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2172,11 +2175,11 @@
       <c r="A3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="33"/>
       <c r="G3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H3" s="20"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2185,7 +2188,7 @@
       <c r="C4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="25" t="s">
         <v>156</v>
       </c>
       <c r="E4" s="16"/>
@@ -2206,7 +2209,7 @@
       <c r="C5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="16"/>
       <c r="F5" s="1">
         <v>1</v>
@@ -2237,7 +2240,7 @@
       <c r="C7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="20" t="s">
         <v>156</v>
       </c>
       <c r="E7" s="16"/>
@@ -2249,7 +2252,7 @@
       <c r="C8" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="27" t="s">
         <v>155</v>
       </c>
       <c r="E8" s="17"/>
@@ -2261,7 +2264,7 @@
       <c r="C9" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2271,7 +2274,7 @@
       <c r="C10" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="28"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2281,7 +2284,7 @@
       <c r="C11" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2292,7 +2295,7 @@
       <c r="C12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2301,7 +2304,7 @@
       <c r="C13" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="22" t="s">
         <v>152</v>
       </c>
       <c r="E13" s="15"/>
@@ -2319,7 +2322,7 @@
       <c r="C14" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="15"/>
       <c r="G14" s="11" t="s">
         <v>134</v>
@@ -2344,7 +2347,7 @@
       <c r="A16" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="34" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2352,13 +2355,13 @@
       <c r="A17" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="34"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="33" t="s">
         <v>128</v>
       </c>
       <c r="G18" s="8" t="s">
@@ -2372,7 +2375,7 @@
       <c r="A19" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="33"/>
       <c r="G19" s="8" t="s">
         <v>134</v>
       </c>
@@ -2384,7 +2387,7 @@
       <c r="A20" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="34" t="s">
         <v>129</v>
       </c>
       <c r="F20" s="1">
@@ -2401,7 +2404,7 @@
       <c r="A21" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="34"/>
       <c r="F21" s="1">
         <v>4</v>
       </c>
@@ -2416,7 +2419,7 @@
       <c r="A22" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="34" t="s">
         <v>130</v>
       </c>
       <c r="E22" s="14" t="s">
@@ -2436,7 +2439,7 @@
       <c r="A23" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="22"/>
+      <c r="B23" s="34"/>
       <c r="E23" s="14" t="s">
         <v>134</v>
       </c>
@@ -2606,7 +2609,7 @@
       <c r="A46" t="s">
         <v>112</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="30" t="s">
         <v>154</v>
       </c>
       <c r="E46" s="18"/>
@@ -2615,14 +2618,14 @@
       <c r="A47" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="30"/>
+      <c r="D47" s="31"/>
       <c r="E47" s="18"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="31"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="18"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2633,6 +2636,12 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>116</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">

--- a/ProjectDocumention/DatasConception.xlsx
+++ b/ProjectDocumention/DatasConception.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="105" windowWidth="23715" windowHeight="9030"/>
+    <workbookView xWindow="2460" yWindow="105" windowWidth="23715" windowHeight="9030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ArduinoMegaPin" sheetId="5" r:id="rId1"/>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="144">
   <si>
     <t>Diametre roue</t>
   </si>
@@ -600,6 +600,24 @@
   </si>
   <si>
     <t>power for encoder</t>
+  </si>
+  <si>
+    <t>Nb trous encodeur</t>
+  </si>
+  <si>
+    <t>Perimetre roue</t>
+  </si>
+  <si>
+    <t>distance par trous</t>
+  </si>
+  <si>
+    <t>nb de trous vus</t>
+  </si>
+  <si>
+    <t>distance ne cm</t>
+  </si>
+  <si>
+    <t>calculette</t>
   </si>
 </sst>
 </file>
@@ -646,7 +664,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -686,6 +704,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,7 +764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -793,6 +817,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -819,19 +861,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1203,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G49" sqref="G49:H49"/>
@@ -1248,13 +1279,13 @@
       <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="23" t="s">
         <v>83</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="25" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1262,11 +1293,11 @@
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="23"/>
       <c r="G3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1275,7 +1306,7 @@
       <c r="C4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="29" t="s">
         <v>113</v>
       </c>
       <c r="E4" s="14"/>
@@ -1296,7 +1327,7 @@
       <c r="C5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="14"/>
       <c r="F5" s="1">
         <v>1</v>
@@ -1339,7 +1370,7 @@
       <c r="C8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="31" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="15"/>
@@ -1351,7 +1382,7 @@
       <c r="C9" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1361,7 +1392,7 @@
       <c r="C10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1371,7 +1402,7 @@
       <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="27" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1382,7 +1413,7 @@
       <c r="C12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1391,7 +1422,7 @@
       <c r="C13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="26" t="s">
         <v>109</v>
       </c>
       <c r="E13" s="13"/>
@@ -1409,7 +1440,7 @@
       <c r="C14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="13"/>
       <c r="G14" s="9" t="s">
         <v>91</v>
@@ -1434,7 +1465,7 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="24" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1442,13 +1473,13 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="24"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="23" t="s">
         <v>85</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -1462,7 +1493,7 @@
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="31"/>
+      <c r="B19" s="23"/>
       <c r="G19" s="6" t="s">
         <v>91</v>
       </c>
@@ -1474,7 +1505,7 @@
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="24" t="s">
         <v>86</v>
       </c>
       <c r="F20" s="1">
@@ -1491,7 +1522,7 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="32"/>
+      <c r="B21" s="24"/>
       <c r="F21" s="1">
         <v>4</v>
       </c>
@@ -1506,7 +1537,7 @@
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="24" t="s">
         <v>87</v>
       </c>
       <c r="E22" s="12" t="s">
@@ -1526,7 +1557,7 @@
       <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="32"/>
+      <c r="B23" s="24"/>
       <c r="E23" s="12" t="s">
         <v>91</v>
       </c>
@@ -1696,7 +1727,7 @@
       <c r="A46" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="20" t="s">
         <v>111</v>
       </c>
       <c r="E46" s="16"/>
@@ -1705,14 +1736,14 @@
       <c r="A47" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="29"/>
+      <c r="D47" s="21"/>
       <c r="E47" s="16"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="30"/>
+      <c r="D48" s="22"/>
       <c r="E48" s="16"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1893,17 +1924,17 @@
   </sheetData>
   <autoFilter ref="A1:H71"/>
   <mergeCells count="11">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="D46:D48"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1912,10 +1943,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K2"/>
+  <dimension ref="B1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1926,9 +1957,15 @@
     <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="1.42578125" style="34" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1959,14 +1996,27 @@
       <c r="K1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q1" s="24"/>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2">
         <f>PI()*B2/1000</f>
-        <v>0.20420352248333654</v>
+        <v>0.19792033717615698</v>
       </c>
       <c r="D2">
         <v>3000</v>
@@ -1977,18 +2027,18 @@
       </c>
       <c r="F2" s="2">
         <f>E2/C2*60</f>
-        <v>244.85375860291595</v>
+        <v>252.62689379665926</v>
       </c>
       <c r="G2">
         <v>120</v>
       </c>
       <c r="H2">
         <f>G2*C2</f>
-        <v>24.504422698000383</v>
+        <v>23.750440461138837</v>
       </c>
       <c r="I2">
         <f>H2/1000*60</f>
-        <v>1.4702653618800228</v>
+        <v>1.4250264276683302</v>
       </c>
       <c r="J2">
         <v>12</v>
@@ -1997,8 +2047,37 @@
         <f>G2/J2</f>
         <v>10</v>
       </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <f>PI()*B2</f>
+        <v>197.92033717615698</v>
+      </c>
+      <c r="N2">
+        <f>M2/8</f>
+        <v>24.740042147019622</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P3" s="19">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="35">
+        <f>P3*N2/10</f>
+        <v>98.960168588078488</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P1:Q1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/ProjectDocumention/DatasConception.xlsx
+++ b/ProjectDocumention/DatasConception.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="105" windowWidth="23715" windowHeight="9030" activeTab="1"/>
+    <workbookView xWindow="3570" yWindow="105" windowWidth="23715" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="ArduinoMegaPin" sheetId="5" r:id="rId1"/>
@@ -428,9 +428,6 @@
     <t>Serial</t>
   </si>
   <si>
-    <t>PMW</t>
-  </si>
-  <si>
     <t>Timer</t>
   </si>
   <si>
@@ -618,6 +615,9 @@
   </si>
   <si>
     <t>calculette</t>
+  </si>
+  <si>
+    <t>PWM</t>
   </si>
 </sst>
 </file>
@@ -819,6 +819,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -859,10 +863,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1234,11 +1234,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G49" sqref="G49:H49"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,70 +1254,70 @@
         <v>79</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>83</v>
+      <c r="B2" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>89</v>
+        <v>113</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="25"/>
       <c r="G3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="25"/>
+        <v>113</v>
+      </c>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>113</v>
+        <v>90</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>112</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1325,18 +1325,18 @@
         <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="30"/>
+        <v>90</v>
+      </c>
+      <c r="D5" s="32"/>
       <c r="E5" s="14"/>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1344,10 +1344,10 @@
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -1356,10 +1356,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="14"/>
     </row>
@@ -1368,21 +1368,27 @@
         <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>112</v>
+        <v>90</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>111</v>
       </c>
       <c r="E8" s="15"/>
+      <c r="G8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="32"/>
+        <v>90</v>
+      </c>
+      <c r="D9" s="34"/>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1390,9 +1396,9 @@
         <v>32</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="33"/>
+        <v>90</v>
+      </c>
+      <c r="D10" s="35"/>
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1400,10 +1406,10 @@
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>110</v>
+        <v>90</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1411,26 +1417,26 @@
         <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="28"/>
+        <v>90</v>
+      </c>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>109</v>
+        <v>90</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="E13" s="13"/>
       <c r="G13" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1438,15 +1444,15 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="26"/>
+        <v>90</v>
+      </c>
+      <c r="D14" s="28"/>
       <c r="E14" s="13"/>
       <c r="G14" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1454,10 +1460,10 @@
         <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1465,110 +1471,110 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>84</v>
+      <c r="B16" s="26" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="26"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>85</v>
+      <c r="B18" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="25"/>
       <c r="G19" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>86</v>
+      <c r="B20" s="26" t="s">
+        <v>85</v>
       </c>
       <c r="F20" s="1">
         <v>5</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="26"/>
       <c r="F21" s="1">
         <v>4</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>87</v>
+      <c r="B22" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F22" s="1">
         <v>3</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="26"/>
       <c r="E23" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23" s="1">
         <v>2</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1576,10 +1582,10 @@
         <v>46</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1587,10 +1593,10 @@
         <v>47</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1598,10 +1604,10 @@
         <v>48</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1609,10 +1615,10 @@
         <v>49</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1620,10 +1626,10 @@
         <v>51</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1631,22 +1637,16 @@
         <v>52</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1727,8 +1727,8 @@
       <c r="A46" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="20" t="s">
-        <v>111</v>
+      <c r="D46" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="E46" s="16"/>
     </row>
@@ -1736,14 +1736,14 @@
       <c r="A47" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="21"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="16"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="22"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="16"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1756,10 +1756,10 @@
         <v>73</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1767,10 +1767,10 @@
         <v>74</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1778,7 +1778,7 @@
         <v>75</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H52" s="11" t="s">
         <v>14</v>
@@ -1789,7 +1789,7 @@
         <v>76</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H53" s="11" t="s">
         <v>14</v>
@@ -1800,7 +1800,7 @@
         <v>77</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H54" s="11" t="s">
         <v>14</v>
@@ -1811,7 +1811,7 @@
         <v>78</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H55" s="11" t="s">
         <v>14</v>
@@ -1819,106 +1819,106 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1945,7 +1945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -1960,7 +1960,7 @@
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.140625" customWidth="1"/>
-    <col min="15" max="15" width="1.42578125" style="34" customWidth="1"/>
+    <col min="15" max="15" width="1.42578125" style="20" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" style="19" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.42578125" style="19"/>
   </cols>
@@ -1997,18 +1997,18 @@
         <v>24</v>
       </c>
       <c r="L1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" t="s">
         <v>138</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>139</v>
       </c>
-      <c r="N1" t="s">
-        <v>140</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q1" s="24"/>
+      <c r="P1" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2">
@@ -2059,17 +2059,17 @@
         <v>24.740042147019622</v>
       </c>
       <c r="P2" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q2" s="19" t="s">
         <v>141</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P3" s="19">
         <v>40</v>
       </c>
-      <c r="Q3" s="35">
+      <c r="Q3" s="21">
         <f>P3*N2/10</f>
         <v>98.960168588078488</v>
       </c>

--- a/ProjectDocumention/DatasConception.xlsx
+++ b/ProjectDocumention/DatasConception.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="105" windowWidth="23715" windowHeight="9030"/>
+    <workbookView xWindow="4620" yWindow="105" windowWidth="23715" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="ArduinoMegaPin" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="courant" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ArduinoMegaPin!$A$1:$H$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ArduinoMegaPin!$A$1:$H$72</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D46" authorId="0" shapeId="0">
+    <comment ref="D47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="144">
   <si>
     <t>Diametre roue</t>
   </si>
@@ -764,7 +764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -823,18 +823,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -863,6 +851,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1232,13 +1235,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="G43" sqref="G43:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,13 +1282,13 @@
       <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="35" t="s">
         <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="23" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1293,11 +1296,11 @@
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="35"/>
       <c r="G3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="27"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1306,7 +1309,7 @@
       <c r="C4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="27" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="14"/>
@@ -1327,7 +1330,7 @@
       <c r="C5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="14"/>
       <c r="F5" s="1">
         <v>1</v>
@@ -1370,16 +1373,10 @@
       <c r="C8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="29" t="s">
         <v>111</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="G8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1388,7 +1385,7 @@
       <c r="C9" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1398,7 +1395,7 @@
       <c r="C10" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="35"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1408,7 +1405,7 @@
       <c r="C11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="25" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1419,7 +1416,7 @@
       <c r="C12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1428,7 +1425,7 @@
       <c r="C13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="24" t="s">
         <v>108</v>
       </c>
       <c r="E13" s="13"/>
@@ -1446,7 +1443,7 @@
       <c r="C14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="13"/>
       <c r="G14" s="9" t="s">
         <v>90</v>
@@ -1471,7 +1468,7 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="36" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1479,13 +1476,13 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="36"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="35" t="s">
         <v>84</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -1499,7 +1496,7 @@
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="35"/>
       <c r="G19" s="6" t="s">
         <v>90</v>
       </c>
@@ -1511,7 +1508,7 @@
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="36" t="s">
         <v>85</v>
       </c>
       <c r="F20" s="1">
@@ -1528,7 +1525,7 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="26"/>
+      <c r="B21" s="36"/>
       <c r="F21" s="1">
         <v>4</v>
       </c>
@@ -1543,7 +1540,7 @@
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="36" t="s">
         <v>86</v>
       </c>
       <c r="E22" s="12" t="s">
@@ -1563,7 +1560,7 @@
       <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="36"/>
       <c r="E23" s="12" t="s">
         <v>90</v>
       </c>
@@ -1658,135 +1655,139 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D47" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="16"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="16"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="D48" s="33"/>
+      <c r="E48" s="16"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="16"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>72</v>
-      </c>
+      <c r="D49" s="34"/>
+      <c r="E49" s="16"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>90</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>90</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>90</v>
@@ -1797,7 +1798,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>90</v>
@@ -1808,7 +1809,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>90</v>
@@ -1819,122 +1820,133 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>99</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>90</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>104</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>90</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>105</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>106</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H71"/>
+  <autoFilter ref="A1:H72"/>
   <mergeCells count="11">
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2005,10 +2017,10 @@
       <c r="N1" t="s">
         <v>139</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="Q1" s="26"/>
+      <c r="Q1" s="36"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2">

--- a/ProjectDocumention/DatasConception.xlsx
+++ b/ProjectDocumention/DatasConception.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="105" windowWidth="23715" windowHeight="9030"/>
+    <workbookView xWindow="5670" yWindow="105" windowWidth="23715" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="ArduinoMegaPin" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>timer 3 a priori utilise par servo</t>
+          <t>timer 3  used by servo
+So servomotor and wheel encoders must be used alternativly</t>
         </r>
       </text>
     </comment>
@@ -826,6 +827,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -851,21 +867,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1241,7 +1242,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G43" sqref="G43:H43"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,13 +1283,13 @@
       <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="26" t="s">
         <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="28" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1296,11 +1297,11 @@
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="26"/>
       <c r="G3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="23"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1309,7 +1310,7 @@
       <c r="C4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="32" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="14"/>
@@ -1330,7 +1331,7 @@
       <c r="C5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="14"/>
       <c r="F5" s="1">
         <v>1</v>
@@ -1373,7 +1374,7 @@
       <c r="C8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="34" t="s">
         <v>111</v>
       </c>
       <c r="E8" s="15"/>
@@ -1385,7 +1386,7 @@
       <c r="C9" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1395,7 +1396,7 @@
       <c r="C10" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1405,7 +1406,7 @@
       <c r="C11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="30" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       <c r="C12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1425,7 +1426,7 @@
       <c r="C13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="29" t="s">
         <v>108</v>
       </c>
       <c r="E13" s="13"/>
@@ -1443,7 +1444,7 @@
       <c r="C14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="24"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="13"/>
       <c r="G14" s="9" t="s">
         <v>90</v>
@@ -1468,7 +1469,7 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="27" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1476,13 +1477,13 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="27"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="26" t="s">
         <v>84</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -1496,7 +1497,7 @@
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="35"/>
+      <c r="B19" s="26"/>
       <c r="G19" s="6" t="s">
         <v>90</v>
       </c>
@@ -1508,7 +1509,7 @@
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="27" t="s">
         <v>85</v>
       </c>
       <c r="F20" s="1">
@@ -1525,7 +1526,7 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="27"/>
       <c r="F21" s="1">
         <v>4</v>
       </c>
@@ -1540,7 +1541,7 @@
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="27" t="s">
         <v>86</v>
       </c>
       <c r="E22" s="12" t="s">
@@ -1560,7 +1561,7 @@
       <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="36"/>
+      <c r="B23" s="27"/>
       <c r="E23" s="12" t="s">
         <v>90</v>
       </c>
@@ -1739,7 +1740,7 @@
       <c r="A47" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="23" t="s">
         <v>110</v>
       </c>
       <c r="E47" s="16"/>
@@ -1748,14 +1749,14 @@
       <c r="A48" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="33"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="16"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="34"/>
+      <c r="D49" s="25"/>
       <c r="E49" s="16"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1936,17 +1937,17 @@
   </sheetData>
   <autoFilter ref="A1:H72"/>
   <mergeCells count="11">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="D47:D49"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2017,10 +2018,10 @@
       <c r="N1" t="s">
         <v>139</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="Q1" s="36"/>
+      <c r="Q1" s="27"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2">

--- a/ProjectDocumention/DatasConception.xlsx
+++ b/ProjectDocumention/DatasConception.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="105" windowWidth="23715" windowHeight="9030"/>
+    <workbookView xWindow="6720" yWindow="105" windowWidth="23715" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="ArduinoMegaPin" sheetId="5" r:id="rId1"/>
@@ -44,6 +44,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>used by delay &amp; millis()</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D8" authorId="0" shapeId="0">
       <text>
         <r>
@@ -55,6 +69,54 @@
             <family val="2"/>
           </rPr>
           <t>used by echoDectection</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>used by PWM 11 &amp; 12</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>used by delay &amp; millis()</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -187,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="147">
   <si>
     <t>Diametre roue</t>
   </si>
@@ -540,12 +602,6 @@
     <t>I2C</t>
   </si>
   <si>
-    <t>SDA magnetometer</t>
-  </si>
-  <si>
-    <t>SCL magnetometer</t>
-  </si>
-  <si>
     <t>Horn</t>
   </si>
   <si>
@@ -555,12 +611,6 @@
     <t>5v power  read</t>
   </si>
   <si>
-    <t>Left Motor PMW</t>
-  </si>
-  <si>
-    <t>Right Motor PMW</t>
-  </si>
-  <si>
     <t>Left IN1 Motor drive</t>
   </si>
   <si>
@@ -619,6 +669,27 @@
   </si>
   <si>
     <t>PWM</t>
+  </si>
+  <si>
+    <t>SDA &gt;&gt;  BNO Subsytem</t>
+  </si>
+  <si>
+    <t>SCL &gt;&gt; BNO Subsystem</t>
+  </si>
+  <si>
+    <t>15v power read</t>
+  </si>
+  <si>
+    <t>5v power read</t>
+  </si>
+  <si>
+    <t>10v power read</t>
+  </si>
+  <si>
+    <t>Right Motor PWM</t>
+  </si>
+  <si>
+    <t>Left Motor PWM</t>
   </si>
 </sst>
 </file>
@@ -628,7 +699,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,8 +735,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,12 +765,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,7 +793,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -760,12 +838,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -778,19 +871,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -799,16 +883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -820,23 +895,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -845,28 +908,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1242,15 +1329,15 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="11.42578125" style="12"/>
+    <col min="5" max="5" width="11.42578125" style="9"/>
     <col min="6" max="7" width="11.42578125" style="1"/>
-    <col min="8" max="8" width="11.42578125" style="11"/>
+    <col min="8" max="8" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1258,7 +1345,7 @@
         <v>79</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>80</v>
@@ -1272,7 +1359,7 @@
       <c r="G1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="11" t="s">
         <v>87</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -1283,13 +1370,13 @@
       <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="30" t="s">
         <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="19" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1297,11 +1384,11 @@
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="30"/>
       <c r="G3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="28"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1310,18 +1397,18 @@
       <c r="C4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>134</v>
+      <c r="G4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1331,19 +1418,19 @@
       <c r="C5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="14"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1353,7 +1440,7 @@
       <c r="D6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1362,42 +1449,46 @@
       <c r="C7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="17"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="17"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="15"/>
+      <c r="C9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="17"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="15"/>
+      <c r="C10" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="17"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1406,9 +1497,10 @@
       <c r="C11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="20" t="s">
         <v>109</v>
       </c>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1417,7 +1509,8 @@
       <c r="C12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="31"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1426,31 +1519,31 @@
       <c r="C13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="G13" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="17"/>
+      <c r="G13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="13"/>
-      <c r="G14" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>122</v>
+      <c r="D14" s="33"/>
+      <c r="E14" s="17"/>
+      <c r="G14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1463,13 +1556,13 @@
       <c r="D15" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="31" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1477,19 +1570,19 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="31"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="30" t="s">
         <v>84</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="8" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1497,11 +1590,11 @@
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="26"/>
+      <c r="B19" s="30"/>
       <c r="G19" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="8" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1509,7 +1602,7 @@
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="31" t="s">
         <v>85</v>
       </c>
       <c r="F20" s="1">
@@ -1518,33 +1611,33 @@
       <c r="G20" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>130</v>
+      <c r="H20" s="8" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="31"/>
       <c r="F21" s="1">
         <v>4</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>132</v>
+      <c r="H21" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F22" s="1">
@@ -1553,16 +1646,16 @@
       <c r="G22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>117</v>
+      <c r="H22" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="E23" s="12" t="s">
+      <c r="B23" s="31"/>
+      <c r="E23" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F23" s="1">
@@ -1571,8 +1664,8 @@
       <c r="G23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>118</v>
+      <c r="H23" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1582,8 +1675,8 @@
       <c r="G24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>131</v>
+      <c r="H24" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1593,8 +1686,8 @@
       <c r="G25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>133</v>
+      <c r="H25" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1604,8 +1697,8 @@
       <c r="G26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>126</v>
+      <c r="H26" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1615,8 +1708,8 @@
       <c r="G27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>127</v>
+      <c r="H27" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1626,8 +1719,8 @@
       <c r="G28" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>124</v>
+      <c r="H28" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1637,8 +1730,8 @@
       <c r="G29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>125</v>
+      <c r="H29" s="8" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1710,14 +1803,14 @@
       <c r="A43" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="8" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1740,24 +1833,27 @@
       <c r="A47" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="16"/>
+      <c r="E47" s="17"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="16"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="17"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="16"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="17"/>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -1771,8 +1867,8 @@
       <c r="G51" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H51" s="11" t="s">
-        <v>136</v>
+      <c r="H51" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1782,8 +1878,8 @@
       <c r="G52" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H52" s="11" t="s">
-        <v>119</v>
+      <c r="H52" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1793,7 +1889,7 @@
       <c r="G53" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="H53" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1804,7 +1900,7 @@
       <c r="G54" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="H54" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1815,7 +1911,7 @@
       <c r="G55" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H55" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1826,7 +1922,7 @@
       <c r="G56" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="H56" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1834,21 +1930,45 @@
       <c r="A57" t="s">
         <v>91</v>
       </c>
+      <c r="G57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>92</v>
       </c>
+      <c r="G58" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>93</v>
       </c>
+      <c r="G59" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>94</v>
       </c>
+      <c r="G60" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -1877,8 +1997,8 @@
       <c r="G65" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H65" s="11" t="s">
-        <v>128</v>
+      <c r="H65" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -1888,8 +2008,8 @@
       <c r="G66" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H66" s="11" t="s">
-        <v>129</v>
+      <c r="H66" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -1914,8 +2034,8 @@
       <c r="G70" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H70" s="11" t="s">
-        <v>120</v>
+      <c r="H70" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -1925,8 +2045,8 @@
       <c r="G71" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H71" s="11" t="s">
-        <v>121</v>
+      <c r="H71" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -1937,17 +2057,17 @@
   </sheetData>
   <autoFilter ref="A1:H72"/>
   <mergeCells count="11">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D8:D10"/>
     <mergeCell ref="D47:D49"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1973,9 +2093,9 @@
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.140625" customWidth="1"/>
-    <col min="15" max="15" width="1.42578125" style="20" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="19"/>
+    <col min="15" max="15" width="1.42578125" style="14" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
@@ -2010,18 +2130,18 @@
         <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="N1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P1" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q1" s="27"/>
+      <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2">
@@ -2071,18 +2191,18 @@
         <f>M2/8</f>
         <v>24.740042147019622</v>
       </c>
-      <c r="P2" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>141</v>
+      <c r="P2" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="P3" s="19">
+      <c r="P3" s="13">
         <v>40</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="15">
         <f>P3*N2/10</f>
         <v>98.960168588078488</v>
       </c>

--- a/ProjectDocumention/DatasConception.xlsx
+++ b/ProjectDocumention/DatasConception.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean\Documents\Arduino\ApeRobot\ProjectDocumention\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="6720" yWindow="105" windowWidth="23715" windowHeight="9030"/>
   </bookViews>
@@ -19,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ArduinoMegaPin!$A$1:$H$72</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -29,7 +24,7 @@
     <author>jean</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0">
+    <comment ref="D13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D15" authorId="0" shapeId="0">
+    <comment ref="D15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D47" authorId="0" shapeId="0">
+    <comment ref="D47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +149,7 @@
     <author>jean</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -206,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="148">
   <si>
     <t>Diametre roue</t>
   </si>
@@ -690,12 +685,15 @@
   </si>
   <si>
     <t>Left Motor PWM</t>
+  </si>
+  <si>
+    <t>toDo LED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
@@ -908,9 +906,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -930,30 +952,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1045,7 +1043,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1078,26 +1076,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1130,23 +1111,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1326,10 +1290,10 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K44" sqref="K44"/>
+      <selection pane="bottomRight" activeCell="G41" sqref="G41:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,13 +1334,13 @@
       <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="23" t="s">
         <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="25" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1384,11 +1348,11 @@
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="23"/>
       <c r="G3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1397,7 +1361,7 @@
       <c r="C4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="30" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="17"/>
@@ -1418,7 +1382,7 @@
       <c r="C5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="17"/>
       <c r="F5" s="1">
         <v>1</v>
@@ -1449,7 +1413,7 @@
       <c r="C7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="19" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="17"/>
@@ -1462,7 +1426,7 @@
       <c r="C8" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="32" t="s">
         <v>111</v>
       </c>
       <c r="E8" s="17"/>
@@ -1475,7 +1439,7 @@
       <c r="C9" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="17"/>
       <c r="G9" s="10"/>
     </row>
@@ -1486,7 +1450,7 @@
       <c r="C10" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="17"/>
       <c r="G10" s="10"/>
     </row>
@@ -1497,7 +1461,7 @@
       <c r="C11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="28" t="s">
         <v>109</v>
       </c>
       <c r="E11" s="17"/>
@@ -1509,7 +1473,7 @@
       <c r="C12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1519,7 +1483,7 @@
       <c r="C13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="26" t="s">
         <v>108</v>
       </c>
       <c r="E13" s="17"/>
@@ -1537,7 +1501,7 @@
       <c r="C14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="17"/>
       <c r="G14" s="7" t="s">
         <v>90</v>
@@ -1562,7 +1526,7 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="24" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1570,13 +1534,13 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="24"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="23" t="s">
         <v>84</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -1590,7 +1554,7 @@
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="30"/>
+      <c r="B19" s="23"/>
       <c r="G19" s="6" t="s">
         <v>90</v>
       </c>
@@ -1602,7 +1566,7 @@
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="24" t="s">
         <v>85</v>
       </c>
       <c r="F20" s="1">
@@ -1619,7 +1583,7 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="24"/>
       <c r="F21" s="1">
         <v>4</v>
       </c>
@@ -1634,7 +1598,7 @@
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="24" t="s">
         <v>86</v>
       </c>
       <c r="E22" s="9" t="s">
@@ -1654,7 +1618,7 @@
       <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="31"/>
+      <c r="B23" s="24"/>
       <c r="E23" s="9" t="s">
         <v>90</v>
       </c>
@@ -1749,52 +1713,58 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>65</v>
       </c>
@@ -1833,7 +1803,7 @@
       <c r="A47" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="20" t="s">
         <v>110</v>
       </c>
       <c r="E47" s="17"/>
@@ -1843,7 +1813,7 @@
       <c r="A48" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="28"/>
+      <c r="D48" s="21"/>
       <c r="E48" s="17"/>
       <c r="G48" s="10"/>
     </row>
@@ -1851,7 +1821,7 @@
       <c r="A49" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="29"/>
+      <c r="D49" s="22"/>
       <c r="E49" s="17"/>
       <c r="G49" s="10"/>
     </row>
@@ -2057,17 +2027,17 @@
   </sheetData>
   <autoFilter ref="A1:H72"/>
   <mergeCells count="11">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="D47:D49"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2138,10 +2108,10 @@
       <c r="N1" t="s">
         <v>135</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="Q1" s="31"/>
+      <c r="Q1" s="24"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2">

--- a/ProjectDocumention/DatasConception.xlsx
+++ b/ProjectDocumention/DatasConception.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="105" windowWidth="23715" windowHeight="9030"/>
+    <workbookView xWindow="6720" yWindow="105" windowWidth="23715" windowHeight="9030" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ArduinoMegaPin" sheetId="5" r:id="rId1"/>
     <sheet name="tourMoteurs" sheetId="2" r:id="rId2"/>
     <sheet name="courant" sheetId="3" r:id="rId3"/>
+    <sheet name="MesuresConsoElec" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ArduinoMegaPin!$A$1:$H$72</definedName>
@@ -244,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="158">
   <si>
     <t>Diametre roue</t>
   </si>
@@ -504,9 +505,6 @@
     <t>serial 3</t>
   </si>
   <si>
-    <t>serial 4</t>
-  </si>
-  <si>
     <t>Usage</t>
   </si>
   <si>
@@ -688,14 +686,48 @@
   </si>
   <si>
     <t>toDo LED</t>
+  </si>
+  <si>
+    <t>Nano</t>
+  </si>
+  <si>
+    <t>Volts</t>
+  </si>
+  <si>
+    <t>ESP8266</t>
+  </si>
+  <si>
+    <t>Watts</t>
+  </si>
+  <si>
+    <t>Nano+Esp+AtMega+diode</t>
+  </si>
+  <si>
+    <t>Nano+Esp+AtMega+diode+encoders</t>
+  </si>
+  <si>
+    <t>delat esp8266 relai on off</t>
+  </si>
+  <si>
+    <t>diodes off</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>ESP+Nano</t>
+  </si>
+  <si>
+    <t>atmeag sleep mode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -852,11 +884,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -909,21 +943,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -954,10 +974,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Milliers" xfId="3" builtinId="3"/>
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1289,11 +1327,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G41" sqref="G41:H41"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,70 +1347,70 @@
         <v>79</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>81</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="34" t="s">
         <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>88</v>
+        <v>112</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="34"/>
       <c r="G3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="25"/>
+        <v>112</v>
+      </c>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>112</v>
+        <v>89</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>111</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1380,18 +1418,18 @@
         <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="31"/>
+        <v>89</v>
+      </c>
+      <c r="D5" s="27"/>
       <c r="E5" s="17"/>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1399,10 +1437,10 @@
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="17"/>
     </row>
@@ -1411,10 +1449,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="17"/>
       <c r="G7" s="12"/>
@@ -1424,10 +1462,10 @@
         <v>30</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>111</v>
+        <v>89</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>110</v>
       </c>
       <c r="E8" s="17"/>
       <c r="G8" s="10"/>
@@ -1437,9 +1475,9 @@
         <v>31</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="33"/>
+        <v>89</v>
+      </c>
+      <c r="D9" s="29"/>
       <c r="E9" s="17"/>
       <c r="G9" s="10"/>
     </row>
@@ -1448,9 +1486,9 @@
         <v>32</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="34"/>
+        <v>89</v>
+      </c>
+      <c r="D10" s="30"/>
       <c r="E10" s="17"/>
       <c r="G10" s="10"/>
     </row>
@@ -1459,10 +1497,10 @@
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>109</v>
+        <v>89</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="E11" s="17"/>
     </row>
@@ -1471,9 +1509,9 @@
         <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="29"/>
+        <v>89</v>
+      </c>
+      <c r="D12" s="25"/>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1481,17 +1519,17 @@
         <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>108</v>
+        <v>89</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>107</v>
       </c>
       <c r="E13" s="17"/>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1499,15 +1537,15 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="27"/>
+        <v>89</v>
+      </c>
+      <c r="D14" s="23"/>
       <c r="E14" s="17"/>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1515,10 +1553,10 @@
         <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="17"/>
     </row>
@@ -1526,7 +1564,7 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="35" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1534,102 +1572,100 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="35"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="34" t="s">
         <v>84</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="34"/>
       <c r="G19" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="35" t="s">
         <v>85</v>
       </c>
       <c r="F20" s="1">
         <v>5</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="35"/>
       <c r="F21" s="1">
         <v>4</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>86</v>
-      </c>
+      <c r="B22" s="35"/>
       <c r="E22" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F22" s="1">
         <v>3</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="35"/>
       <c r="E23" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F23" s="1">
         <v>2</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1637,10 +1673,10 @@
         <v>46</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1648,10 +1684,10 @@
         <v>47</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1659,10 +1695,10 @@
         <v>48</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1670,10 +1706,10 @@
         <v>49</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1681,10 +1717,10 @@
         <v>51</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1692,10 +1728,10 @@
         <v>52</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1758,10 +1794,10 @@
         <v>64</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1778,10 +1814,10 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1803,8 +1839,8 @@
       <c r="A47" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="20" t="s">
-        <v>110</v>
+      <c r="D47" s="31" t="s">
+        <v>109</v>
       </c>
       <c r="E47" s="17"/>
       <c r="G47" s="10"/>
@@ -1813,7 +1849,7 @@
       <c r="A48" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="21"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="17"/>
       <c r="G48" s="10"/>
     </row>
@@ -1821,7 +1857,7 @@
       <c r="A49" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="22"/>
+      <c r="D49" s="33"/>
       <c r="E49" s="17"/>
       <c r="G49" s="10"/>
     </row>
@@ -1835,10 +1871,10 @@
         <v>73</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1846,10 +1882,10 @@
         <v>74</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1857,7 +1893,7 @@
         <v>75</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>14</v>
@@ -1868,7 +1904,7 @@
         <v>76</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>14</v>
@@ -1879,7 +1915,7 @@
         <v>77</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>14</v>
@@ -1890,7 +1926,7 @@
         <v>78</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>14</v>
@@ -1898,146 +1934,146 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H72"/>
   <mergeCells count="11">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D8:D10"/>
     <mergeCell ref="D47:D49"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2100,18 +2136,18 @@
         <v>24</v>
       </c>
       <c r="L1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" t="s">
         <v>133</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>134</v>
       </c>
-      <c r="N1" t="s">
-        <v>135</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q1" s="24"/>
+      <c r="P1" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="35"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2">
@@ -2162,10 +2198,10 @@
         <v>24.740042147019622</v>
       </c>
       <c r="P2" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q2" s="13" t="s">
         <v>136</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
@@ -2350,4 +2386,134 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" t="s">
+        <v>155</v>
+      </c>
+      <c r="L2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.27</v>
+      </c>
+      <c r="E3">
+        <v>0.34</v>
+      </c>
+      <c r="G3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.223</v>
+      </c>
+      <c r="L3">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="M3">
+        <f>J3-L3</f>
+        <v>2.5999999999999995E-2</v>
+      </c>
+      <c r="O3">
+        <f>L3-B3</f>
+        <v>0.17200000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4">
+        <f>B3*$A$3</f>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:E4" si="0">C3*$A$3</f>
+        <v>1.9600000000000002</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>3.7800000000000002</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4.7600000000000007</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4" si="1">G3*$A$3</f>
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4" si="2">I3*$A$3</f>
+        <v>3.3179999999999996</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4" si="3">J3*$A$3</f>
+        <v>3.1219999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E6" s="36">
+        <f>2.8/E3</f>
+        <v>8.235294117647058</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ProjectDocumention/DatasConception.xlsx
+++ b/ProjectDocumention/DatasConception.xlsx
@@ -48,7 +48,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>used by delay &amp; millis()</t>
         </r>
@@ -76,7 +76,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>used by PWM 11 &amp; 12</t>
         </r>
@@ -85,7 +85,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -100,7 +100,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>used by delay &amp; millis()</t>
         </r>
@@ -109,7 +109,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -706,9 +706,6 @@
     <t>Nano+Esp+AtMega+diode+encoders</t>
   </si>
   <si>
-    <t>delat esp8266 relai on off</t>
-  </si>
-  <si>
     <t>diodes off</t>
   </si>
   <si>
@@ -719,6 +716,9 @@
   </si>
   <si>
     <t>atmeag sleep mode</t>
+  </si>
+  <si>
+    <t>delta esp8266 relai on off</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,19 +764,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -944,6 +931,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -974,22 +977,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Milliers" xfId="3" builtinId="3"/>
@@ -1372,13 +1359,13 @@
       <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="27" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1386,11 +1373,11 @@
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="25"/>
       <c r="G3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1399,7 +1386,7 @@
       <c r="C4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="32" t="s">
         <v>111</v>
       </c>
       <c r="E4" s="17"/>
@@ -1420,7 +1407,7 @@
       <c r="C5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="17"/>
       <c r="F5" s="1">
         <v>1</v>
@@ -1464,7 +1451,7 @@
       <c r="C8" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="34" t="s">
         <v>110</v>
       </c>
       <c r="E8" s="17"/>
@@ -1477,7 +1464,7 @@
       <c r="C9" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="17"/>
       <c r="G9" s="10"/>
     </row>
@@ -1488,7 +1475,7 @@
       <c r="C10" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="30"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="17"/>
       <c r="G10" s="10"/>
     </row>
@@ -1499,7 +1486,7 @@
       <c r="C11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="30" t="s">
         <v>108</v>
       </c>
       <c r="E11" s="17"/>
@@ -1511,7 +1498,7 @@
       <c r="C12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1521,7 +1508,7 @@
       <c r="C13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="28" t="s">
         <v>107</v>
       </c>
       <c r="E13" s="17"/>
@@ -1539,7 +1526,7 @@
       <c r="C14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="23"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="17"/>
       <c r="G14" s="7" t="s">
         <v>89</v>
@@ -1564,7 +1551,7 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="26" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1572,13 +1559,13 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="26"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="25" t="s">
         <v>84</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -1592,7 +1579,7 @@
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="34"/>
+      <c r="B19" s="25"/>
       <c r="G19" s="6" t="s">
         <v>89</v>
       </c>
@@ -1604,7 +1591,7 @@
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="26" t="s">
         <v>85</v>
       </c>
       <c r="F20" s="1">
@@ -1621,7 +1608,7 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="35"/>
+      <c r="B21" s="26"/>
       <c r="F21" s="1">
         <v>4</v>
       </c>
@@ -1636,7 +1623,7 @@
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="26"/>
       <c r="E22" s="9" t="s">
         <v>89</v>
       </c>
@@ -1654,7 +1641,7 @@
       <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="35"/>
+      <c r="B23" s="26"/>
       <c r="E23" s="9" t="s">
         <v>89</v>
       </c>
@@ -1839,7 +1826,7 @@
       <c r="A47" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="22" t="s">
         <v>109</v>
       </c>
       <c r="E47" s="17"/>
@@ -1849,7 +1836,7 @@
       <c r="A48" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="32"/>
+      <c r="D48" s="23"/>
       <c r="E48" s="17"/>
       <c r="G48" s="10"/>
     </row>
@@ -1857,7 +1844,7 @@
       <c r="A49" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="33"/>
+      <c r="D49" s="24"/>
       <c r="E49" s="17"/>
       <c r="G49" s="10"/>
     </row>
@@ -2063,17 +2050,17 @@
   </sheetData>
   <autoFilter ref="A1:H72"/>
   <mergeCells count="11">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="D47:D49"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2144,10 +2131,10 @@
       <c r="N1" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" s="35"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2">
@@ -2393,7 +2380,7 @@
   <dimension ref="A2:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2419,19 +2406,19 @@
         <v>152</v>
       </c>
       <c r="G2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" t="s">
         <v>153</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>154</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>155</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>156</v>
-      </c>
-      <c r="M2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2505,10 +2492,13 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J5" s="20"/>
+      <c r="J5" s="20">
+        <f>J4/D4</f>
+        <v>0.82592592592592584</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E6" s="36">
+      <c r="E6" s="21">
         <f>2.8/E3</f>
         <v>8.235294117647058</v>
       </c>

--- a/ProjectDocumention/DatasConception.xlsx
+++ b/ProjectDocumention/DatasConception.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="105" windowWidth="23715" windowHeight="9030" activeTab="3"/>
+    <workbookView xWindow="6720" yWindow="105" windowWidth="23715" windowHeight="9030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ArduinoMegaPin" sheetId="5" r:id="rId1"/>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="159">
   <si>
     <t>Diametre roue</t>
   </si>
@@ -719,6 +719,9 @@
   </si>
   <si>
     <t>delta esp8266 relai on off</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -932,21 +935,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -975,6 +963,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1359,13 +1362,13 @@
       <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="35" t="s">
         <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="22" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1373,11 +1376,11 @@
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="35"/>
       <c r="G3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="27"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1386,7 +1389,7 @@
       <c r="C4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="27" t="s">
         <v>111</v>
       </c>
       <c r="E4" s="17"/>
@@ -1407,7 +1410,7 @@
       <c r="C5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="17"/>
       <c r="F5" s="1">
         <v>1</v>
@@ -1451,7 +1454,7 @@
       <c r="C8" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="29" t="s">
         <v>110</v>
       </c>
       <c r="E8" s="17"/>
@@ -1464,7 +1467,7 @@
       <c r="C9" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="17"/>
       <c r="G9" s="10"/>
     </row>
@@ -1475,7 +1478,7 @@
       <c r="C10" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="17"/>
       <c r="G10" s="10"/>
     </row>
@@ -1486,7 +1489,7 @@
       <c r="C11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="25" t="s">
         <v>108</v>
       </c>
       <c r="E11" s="17"/>
@@ -1498,7 +1501,7 @@
       <c r="C12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="31"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1508,7 +1511,7 @@
       <c r="C13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="23" t="s">
         <v>107</v>
       </c>
       <c r="E13" s="17"/>
@@ -1526,7 +1529,7 @@
       <c r="C14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="17"/>
       <c r="G14" s="7" t="s">
         <v>89</v>
@@ -1551,7 +1554,7 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="36" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1559,13 +1562,13 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="36"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="35" t="s">
         <v>84</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -1579,7 +1582,7 @@
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="35"/>
       <c r="G19" s="6" t="s">
         <v>89</v>
       </c>
@@ -1591,7 +1594,7 @@
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="36" t="s">
         <v>85</v>
       </c>
       <c r="F20" s="1">
@@ -1608,7 +1611,7 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="26"/>
+      <c r="B21" s="36"/>
       <c r="F21" s="1">
         <v>4</v>
       </c>
@@ -1623,7 +1626,7 @@
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="26"/>
+      <c r="B22" s="36"/>
       <c r="E22" s="9" t="s">
         <v>89</v>
       </c>
@@ -1641,7 +1644,7 @@
       <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="36"/>
       <c r="E23" s="9" t="s">
         <v>89</v>
       </c>
@@ -1826,7 +1829,7 @@
       <c r="A47" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="32" t="s">
         <v>109</v>
       </c>
       <c r="E47" s="17"/>
@@ -1836,7 +1839,7 @@
       <c r="A48" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="23"/>
+      <c r="D48" s="33"/>
       <c r="E48" s="17"/>
       <c r="G48" s="10"/>
     </row>
@@ -1844,7 +1847,7 @@
       <c r="A49" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="24"/>
+      <c r="D49" s="34"/>
       <c r="E49" s="17"/>
       <c r="G49" s="10"/>
     </row>
@@ -2050,17 +2053,17 @@
   </sheetData>
   <autoFilter ref="A1:H72"/>
   <mergeCells count="11">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D8:D10"/>
     <mergeCell ref="D47:D49"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2069,10 +2072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q3"/>
+  <dimension ref="B1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2091,7 +2094,7 @@
     <col min="17" max="17" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2131,12 +2134,12 @@
       <c r="N1" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" s="26"/>
-    </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q1" s="36"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>63</v>
       </c>
@@ -2190,8 +2193,11 @@
       <c r="Q2" s="13" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P3" s="13">
         <v>40</v>
       </c>
@@ -2379,7 +2385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>

--- a/ProjectDocumention/DatasConception.xlsx
+++ b/ProjectDocumention/DatasConception.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="105" windowWidth="23715" windowHeight="9030" activeTab="1"/>
+    <workbookView xWindow="6720" yWindow="105" windowWidth="23715" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="ArduinoMegaPin" sheetId="5" r:id="rId1"/>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="160">
   <si>
     <t>Diametre roue</t>
   </si>
@@ -634,9 +634,6 @@
     <t>back echo trigger</t>
   </si>
   <si>
-    <t>software interrupt (echo)</t>
-  </si>
-  <si>
     <t>software interrupt (wheel encoder)</t>
   </si>
   <si>
@@ -722,6 +719,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Echo Interrupt out</t>
+  </si>
+  <si>
+    <t>Echo Interrupt in</t>
   </si>
 </sst>
 </file>
@@ -935,6 +938,21 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -963,21 +981,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1317,11 +1320,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,7 +1340,7 @@
         <v>79</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>80</v>
@@ -1362,13 +1365,13 @@
       <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="27" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1376,11 +1379,11 @@
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="25"/>
       <c r="G3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1389,7 +1392,7 @@
       <c r="C4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="32" t="s">
         <v>111</v>
       </c>
       <c r="E4" s="17"/>
@@ -1400,7 +1403,7 @@
         <v>89</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1410,7 +1413,7 @@
       <c r="C5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="17"/>
       <c r="F5" s="1">
         <v>1</v>
@@ -1419,7 +1422,7 @@
         <v>89</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1454,11 +1457,16 @@
       <c r="C8" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="34" t="s">
         <v>110</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1467,7 +1475,7 @@
       <c r="C9" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="17"/>
       <c r="G9" s="10"/>
     </row>
@@ -1478,7 +1486,7 @@
       <c r="C10" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="17"/>
       <c r="G10" s="10"/>
     </row>
@@ -1489,7 +1497,7 @@
       <c r="C11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="30" t="s">
         <v>108</v>
       </c>
       <c r="E11" s="17"/>
@@ -1501,7 +1509,7 @@
       <c r="C12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1511,7 +1519,7 @@
       <c r="C13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="28" t="s">
         <v>107</v>
       </c>
       <c r="E13" s="17"/>
@@ -1519,7 +1527,7 @@
         <v>89</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1529,13 +1537,13 @@
       <c r="C14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="24"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="17"/>
       <c r="G14" s="7" t="s">
         <v>89</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1554,7 +1562,7 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="26" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1562,13 +1570,13 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="26"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="25" t="s">
         <v>84</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -1582,7 +1590,7 @@
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="35"/>
+      <c r="B19" s="25"/>
       <c r="G19" s="6" t="s">
         <v>89</v>
       </c>
@@ -1594,7 +1602,7 @@
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="26" t="s">
         <v>85</v>
       </c>
       <c r="F20" s="1">
@@ -1611,7 +1619,7 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="26"/>
       <c r="F21" s="1">
         <v>4</v>
       </c>
@@ -1626,7 +1634,7 @@
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="36"/>
+      <c r="B22" s="26"/>
       <c r="E22" s="9" t="s">
         <v>89</v>
       </c>
@@ -1637,14 +1645,14 @@
         <v>89</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="36"/>
+      <c r="B23" s="26"/>
       <c r="E23" s="9" t="s">
         <v>89</v>
       </c>
@@ -1655,7 +1663,7 @@
         <v>89</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1787,7 +1795,7 @@
         <v>89</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1829,7 +1837,7 @@
       <c r="A47" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="22" t="s">
         <v>109</v>
       </c>
       <c r="E47" s="17"/>
@@ -1839,7 +1847,7 @@
       <c r="A48" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="33"/>
+      <c r="D48" s="23"/>
       <c r="E48" s="17"/>
       <c r="G48" s="10"/>
     </row>
@@ -1847,7 +1855,7 @@
       <c r="A49" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="34"/>
+      <c r="D49" s="24"/>
       <c r="E49" s="17"/>
       <c r="G49" s="10"/>
     </row>
@@ -1864,7 +1872,7 @@
         <v>89</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1930,7 +1938,7 @@
         <v>89</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -1941,7 +1949,7 @@
         <v>89</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -1952,7 +1960,7 @@
         <v>89</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -1963,7 +1971,7 @@
         <v>89</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2053,17 +2061,17 @@
   </sheetData>
   <autoFilter ref="A1:H72"/>
   <mergeCells count="11">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="D47:D49"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2074,7 +2082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
@@ -2126,18 +2134,18 @@
         <v>24</v>
       </c>
       <c r="L1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" t="s">
         <v>132</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>133</v>
       </c>
-      <c r="N1" t="s">
-        <v>134</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q1" s="36"/>
+      <c r="P1" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2">
@@ -2188,13 +2196,13 @@
         <v>24.740042147019622</v>
       </c>
       <c r="P2" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>136</v>
-      </c>
       <c r="R2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
@@ -2397,34 +2405,34 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
         <v>148</v>
       </c>
-      <c r="B2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" t="s">
-        <v>149</v>
-      </c>
       <c r="D2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" t="s">
         <v>151</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" t="s">
         <v>152</v>
       </c>
-      <c r="G2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>153</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>154</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>155</v>
-      </c>
-      <c r="M2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2466,7 +2474,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4">
         <f>B3*$A$3</f>

--- a/ProjectDocumention/DatasConception.xlsx
+++ b/ProjectDocumention/DatasConception.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="105" windowWidth="23715" windowHeight="9030"/>
+    <workbookView xWindow="6720" yWindow="105" windowWidth="23715" windowHeight="9030" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ArduinoMegaPin" sheetId="5" r:id="rId1"/>
     <sheet name="tourMoteurs" sheetId="2" r:id="rId2"/>
     <sheet name="courant" sheetId="3" r:id="rId3"/>
     <sheet name="MesuresConsoElec" sheetId="6" r:id="rId4"/>
+    <sheet name="mecanique" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ArduinoMegaPin!$A$1:$H$72</definedName>
@@ -245,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="166">
   <si>
     <t>Diametre roue</t>
   </si>
@@ -634,9 +635,6 @@
     <t>back echo trigger</t>
   </si>
   <si>
-    <t>software interrupt (wheel encoder)</t>
-  </si>
-  <si>
     <t>power for encoder</t>
   </si>
   <si>
@@ -725,6 +723,27 @@
   </si>
   <si>
     <t>Echo Interrupt in</t>
+  </si>
+  <si>
+    <t>Encoder Interrupt out</t>
+  </si>
+  <si>
+    <t>Encoder Interrupt in</t>
+  </si>
+  <si>
+    <t>reduire les jeux de transmission</t>
+  </si>
+  <si>
+    <t>reduire la taille du robot</t>
+  </si>
+  <si>
+    <t>supprimer les saillances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ameliorer la geometrie </t>
+  </si>
+  <si>
+    <t>durcir le positionement des encoders</t>
   </si>
 </sst>
 </file>
@@ -883,7 +902,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -938,6 +957,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1320,11 +1342,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2:H3"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,7 +1362,7 @@
         <v>79</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>80</v>
@@ -1365,13 +1387,13 @@
       <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="28" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1379,11 +1401,11 @@
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="26"/>
       <c r="G3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="27"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1392,7 +1414,7 @@
       <c r="C4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="33" t="s">
         <v>111</v>
       </c>
       <c r="E4" s="17"/>
@@ -1403,7 +1425,7 @@
         <v>89</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1413,7 +1435,7 @@
       <c r="C5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="17"/>
       <c r="F5" s="1">
         <v>1</v>
@@ -1421,8 +1443,8 @@
       <c r="G5" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>129</v>
+      <c r="H5" s="22" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1457,7 +1479,7 @@
       <c r="C8" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="35" t="s">
         <v>110</v>
       </c>
       <c r="E8" s="17"/>
@@ -1465,7 +1487,7 @@
         <v>89</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1475,9 +1497,14 @@
       <c r="C9" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="17"/>
-      <c r="G9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1486,7 +1513,7 @@
       <c r="C10" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="17"/>
       <c r="G10" s="10"/>
     </row>
@@ -1497,7 +1524,7 @@
       <c r="C11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="31" t="s">
         <v>108</v>
       </c>
       <c r="E11" s="17"/>
@@ -1509,7 +1536,7 @@
       <c r="C12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="31"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1519,7 +1546,7 @@
       <c r="C13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="29" t="s">
         <v>107</v>
       </c>
       <c r="E13" s="17"/>
@@ -1527,7 +1554,7 @@
         <v>89</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1537,13 +1564,13 @@
       <c r="C14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="17"/>
       <c r="G14" s="7" t="s">
         <v>89</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1562,7 +1589,7 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="27" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1570,13 +1597,13 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="27"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="26" t="s">
         <v>84</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -1590,7 +1617,7 @@
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="26"/>
       <c r="G19" s="6" t="s">
         <v>89</v>
       </c>
@@ -1602,7 +1629,7 @@
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="27" t="s">
         <v>85</v>
       </c>
       <c r="F20" s="1">
@@ -1619,7 +1646,7 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="26"/>
+      <c r="B21" s="27"/>
       <c r="F21" s="1">
         <v>4</v>
       </c>
@@ -1634,7 +1661,7 @@
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="26"/>
+      <c r="B22" s="27"/>
       <c r="E22" s="9" t="s">
         <v>89</v>
       </c>
@@ -1645,14 +1672,14 @@
         <v>89</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="27"/>
       <c r="E23" s="9" t="s">
         <v>89</v>
       </c>
@@ -1663,7 +1690,7 @@
         <v>89</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1795,7 +1822,7 @@
         <v>89</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1837,7 +1864,7 @@
       <c r="A47" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="23" t="s">
         <v>109</v>
       </c>
       <c r="E47" s="17"/>
@@ -1847,7 +1874,7 @@
       <c r="A48" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="23"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="17"/>
       <c r="G48" s="10"/>
     </row>
@@ -1855,7 +1882,7 @@
       <c r="A49" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="24"/>
+      <c r="D49" s="25"/>
       <c r="E49" s="17"/>
       <c r="G49" s="10"/>
     </row>
@@ -1872,7 +1899,7 @@
         <v>89</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1938,7 +1965,7 @@
         <v>89</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -1949,7 +1976,7 @@
         <v>89</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -1960,7 +1987,7 @@
         <v>89</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -1971,7 +1998,7 @@
         <v>89</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2134,18 +2161,18 @@
         <v>24</v>
       </c>
       <c r="L1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" t="s">
         <v>131</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>132</v>
       </c>
-      <c r="N1" t="s">
-        <v>133</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q1" s="26"/>
+      <c r="P1" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="27"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2">
@@ -2196,13 +2223,13 @@
         <v>24.740042147019622</v>
       </c>
       <c r="P2" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>135</v>
-      </c>
       <c r="R2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
@@ -2405,34 +2432,34 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
         <v>147</v>
       </c>
-      <c r="B2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" t="s">
-        <v>148</v>
-      </c>
       <c r="D2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" t="s">
         <v>150</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" t="s">
         <v>151</v>
       </c>
-      <c r="G2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>152</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>153</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>154</v>
-      </c>
-      <c r="M2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2474,7 +2501,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4">
         <f>B3*$A$3</f>
@@ -2520,4 +2547,44 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ProjectDocumention/DatasConception.xlsx
+++ b/ProjectDocumention/DatasConception.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="105" windowWidth="23715" windowHeight="9030" activeTab="4"/>
+    <workbookView xWindow="6720" yWindow="105" windowWidth="23715" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="ArduinoMegaPin" sheetId="5" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="mecanique" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ArduinoMegaPin!$A$1:$H$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ArduinoMegaPin!$A$1:$H$71</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D47" authorId="0">
+    <comment ref="D46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="175">
   <si>
     <t>Diametre roue</t>
   </si>
@@ -744,6 +744,33 @@
   </si>
   <si>
     <t>durcir le positionement des encoders</t>
+  </si>
+  <si>
+    <t>IR detection</t>
+  </si>
+  <si>
+    <t>IR sensors</t>
+  </si>
+  <si>
+    <t>IR sensor</t>
+  </si>
+  <si>
+    <t>1 IR sensor</t>
+  </si>
+  <si>
+    <t>via transistor</t>
+  </si>
+  <si>
+    <t>0 IR sensor</t>
+  </si>
+  <si>
+    <t>2 IR sensor</t>
+  </si>
+  <si>
+    <t>IR sensor power1</t>
+  </si>
+  <si>
+    <t>IR sensor power2</t>
   </si>
 </sst>
 </file>
@@ -902,7 +929,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -941,9 +968,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -960,6 +984,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1005,6 +1038,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Milliers" xfId="3" builtinId="3"/>
@@ -1340,13 +1377,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,13 +1424,13 @@
       <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="30" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1401,11 +1438,11 @@
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="28"/>
       <c r="G3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="28"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1414,10 +1451,10 @@
       <c r="C4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="1">
         <v>0</v>
       </c>
@@ -1435,15 +1472,15 @@
       <c r="C5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="17"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1457,7 +1494,7 @@
       <c r="D6" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1466,23 +1503,23 @@
       <c r="C7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="16"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="16"/>
       <c r="G8" s="10" t="s">
         <v>89</v>
       </c>
@@ -1494,11 +1531,11 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="17"/>
+      <c r="C9" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="16"/>
       <c r="G9" s="10" t="s">
         <v>89</v>
       </c>
@@ -1510,11 +1547,11 @@
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="17"/>
+      <c r="C10" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="16"/>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1524,10 +1561,10 @@
       <c r="C11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1536,8 +1573,8 @@
       <c r="C12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="17"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1546,10 +1583,10 @@
       <c r="C13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="16"/>
       <c r="G13" s="7" t="s">
         <v>89</v>
       </c>
@@ -1564,8 +1601,8 @@
       <c r="C14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="17"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="16"/>
       <c r="G14" s="7" t="s">
         <v>89</v>
       </c>
@@ -1583,13 +1620,13 @@
       <c r="D15" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="29" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1597,13 +1634,13 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="29"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="28" t="s">
         <v>84</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -1617,7 +1654,7 @@
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="26"/>
+      <c r="B19" s="28"/>
       <c r="G19" s="6" t="s">
         <v>89</v>
       </c>
@@ -1629,7 +1666,7 @@
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="29" t="s">
         <v>85</v>
       </c>
       <c r="F20" s="1">
@@ -1646,7 +1683,7 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="29"/>
       <c r="F21" s="1">
         <v>4</v>
       </c>
@@ -1661,7 +1698,7 @@
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="27"/>
+      <c r="B22" s="29"/>
       <c r="E22" s="9" t="s">
         <v>89</v>
       </c>
@@ -1679,7 +1716,7 @@
       <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="29"/>
       <c r="E23" s="9" t="s">
         <v>89</v>
       </c>
@@ -1763,11 +1800,23 @@
       <c r="A30" t="s">
         <v>53</v>
       </c>
+      <c r="G30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>54</v>
       </c>
+      <c r="G31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1778,36 +1827,78 @@
       <c r="A33" t="s">
         <v>56</v>
       </c>
+      <c r="G33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>57</v>
       </c>
+      <c r="G34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>58</v>
       </c>
+      <c r="G35" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>59</v>
       </c>
+      <c r="G36" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
+      <c r="G37" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>61</v>
       </c>
+      <c r="G38" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>62</v>
       </c>
+      <c r="G39" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1832,90 +1923,86 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>68</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" s="17"/>
+        <v>70</v>
+      </c>
+      <c r="D47" s="26"/>
+      <c r="E47" s="16"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="17"/>
+        <v>71</v>
+      </c>
+      <c r="D48" s="27"/>
+      <c r="E48" s="16"/>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="17"/>
-      <c r="G49" s="10"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>89</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>89</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>89</v>
@@ -1926,7 +2013,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>89</v>
@@ -1937,7 +2024,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>89</v>
@@ -1948,152 +2035,141 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>89</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>90</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>139</v>
+        <v>91</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>91</v>
-      </c>
-      <c r="G58" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H58" s="18" t="s">
-        <v>140</v>
+        <v>92</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>92</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H59" s="18" t="s">
-        <v>139</v>
+        <v>93</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>93</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H60" s="18" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>89</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>99</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>89</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>104</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H72"/>
+  <autoFilter ref="A1:H71"/>
   <mergeCells count="11">
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D46:D48"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
@@ -2169,10 +2245,10 @@
       <c r="N1" t="s">
         <v>132</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="Q1" s="27"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2">
@@ -2418,10 +2494,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2430,7 +2506,14 @@
     <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R1" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -2461,8 +2544,23 @@
       <c r="M2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="S2" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="T2" s="41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>14</v>
       </c>
@@ -2498,8 +2596,25 @@
         <f>L3-B3</f>
         <v>0.17200000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <f>6*Q3</f>
+        <v>0.21599999999999997</v>
+      </c>
+      <c r="Q3">
+        <f>0.18/5</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="R3" s="41">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="S3" s="41">
+        <v>2.4E-2</v>
+      </c>
+      <c r="T3" s="41">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -2531,21 +2646,33 @@
         <f t="shared" ref="J4" si="3">J3*$A$3</f>
         <v>3.1219999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J5" s="20">
+      <c r="P4">
+        <f>Q3*5</f>
+        <v>0.18</v>
+      </c>
+      <c r="Q4">
+        <f>Q3*4</f>
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J5" s="19">
         <f>J4/D4</f>
         <v>0.82592592592592584</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E6" s="21">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E6" s="20">
         <f>2.8/E3</f>
         <v>8.235294117647058</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="R1:T1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2553,7 +2680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
